--- a/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F44DF6B-7856-4B6E-8B16-66DB4CDAE2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9401078-BE66-4A29-BF3D-2568503AFA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08901717-FBE9-4D0C-B9C7-81E7BC75A1EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E74E6954-1D7A-456B-80E9-0291F4C25E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,56%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,22 +104,22 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -128,28 +128,28 @@
     <t>10,67%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -158,28 +158,28 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -188,433 +188,430 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>48,04%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08476BA1-B10C-42F7-A971-0F11C7089CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B1CEB-136B-4AB0-A5DA-0BCA7C384F3F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,7 +1545,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1560,13 @@
         <v>101711</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>131</v>
@@ -1578,13 +1575,13 @@
         <v>92867</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
@@ -1593,13 +1590,13 @@
         <v>194578</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1611,13 @@
         <v>323542</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>458</v>
@@ -1629,13 +1626,13 @@
         <v>298491</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>782</v>
@@ -1644,13 +1641,13 @@
         <v>622034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1662,13 @@
         <v>489999</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>655</v>
@@ -1680,13 +1677,13 @@
         <v>577717</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -1695,13 +1692,13 @@
         <v>1067716</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1766,13 @@
         <v>7664</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -1784,13 +1781,13 @@
         <v>10699</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -1799,13 +1796,13 @@
         <v>18363</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1817,13 @@
         <v>9601</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1835,13 +1832,13 @@
         <v>6172</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1850,10 +1847,10 @@
         <v>15773</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>122</v>
@@ -2134,7 +2131,7 @@
         <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -2143,13 +2140,13 @@
         <v>69621</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -2158,13 +2155,13 @@
         <v>145507</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2176,13 @@
         <v>163493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
@@ -2194,13 +2191,13 @@
         <v>184966</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>490</v>
@@ -2209,13 +2206,13 @@
         <v>348459</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2227,13 @@
         <v>500397</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
@@ -2245,13 +2242,13 @@
         <v>479273</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>1282</v>
@@ -2260,13 +2257,13 @@
         <v>979671</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2278,13 @@
         <v>774543</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1024</v>
@@ -2296,13 +2293,13 @@
         <v>824671</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1742</v>
@@ -2311,13 +2308,13 @@
         <v>1599214</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9401078-BE66-4A29-BF3D-2568503AFA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD31F05-1AEB-40C2-88B3-9414B90F5A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E74E6954-1D7A-456B-80E9-0291F4C25E9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{830AEB47-2F18-41F6-8A74-C5EC642C2E29}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B1CEB-136B-4AB0-A5DA-0BCA7C384F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC3CAF7-E194-45BE-8585-675E2D889611}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD31F05-1AEB-40C2-88B3-9414B90F5A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B986416-F21F-453D-AD97-ACECE130BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{830AEB47-2F18-41F6-8A74-C5EC642C2E29}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8429A14F-D193-442A-83C9-D5FFAAB07750}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,56%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,22 +104,22 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -128,28 +128,28 @@
     <t>10,67%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -158,28 +158,28 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -188,28 +188,28 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,28 +221,28 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -251,103 +251,106 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>5,22%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>31,86%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>48,26%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -356,10 +359,10 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>3,11%</t>
@@ -368,16 +371,16 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -386,94 +389,91 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>48,0%</t>
   </si>
   <si>
     <t>57,35%</t>
@@ -482,136 +482,139 @@
     <t>51,92%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,74%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>30,66%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
   </si>
   <si>
     <t>48,04%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC3CAF7-E194-45BE-8585-675E2D889611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3942AA-00B1-4B88-8AD0-D637A9324BAC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1545,7 +1548,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1563,13 @@
         <v>101711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>131</v>
@@ -1575,13 +1578,13 @@
         <v>92867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
@@ -1590,13 +1593,13 @@
         <v>194578</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1614,13 @@
         <v>323542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>458</v>
@@ -1626,13 +1629,13 @@
         <v>298491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>782</v>
@@ -1641,13 +1644,13 @@
         <v>622034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1665,13 @@
         <v>489999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>655</v>
@@ -1677,13 +1680,13 @@
         <v>577717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -1692,13 +1695,13 @@
         <v>1067716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1769,13 @@
         <v>7664</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -1781,13 +1784,13 @@
         <v>10699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -1796,13 +1799,13 @@
         <v>18363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1820,13 @@
         <v>9601</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1832,13 +1835,13 @@
         <v>6172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1847,10 +1850,10 @@
         <v>15773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>122</v>
@@ -2131,7 +2134,7 @@
         <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -2140,13 +2143,13 @@
         <v>69621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -2155,13 +2158,13 @@
         <v>145507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2179,13 @@
         <v>163493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
@@ -2191,13 +2194,13 @@
         <v>184966</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>490</v>
@@ -2206,13 +2209,13 @@
         <v>348459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2230,13 @@
         <v>500397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
@@ -2242,13 +2245,13 @@
         <v>479273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>1282</v>
@@ -2257,13 +2260,13 @@
         <v>979671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2281,13 @@
         <v>774543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1024</v>
@@ -2293,13 +2296,13 @@
         <v>824671</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1742</v>
@@ -2308,13 +2311,13 @@
         <v>1599214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2373,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B986416-F21F-453D-AD97-ACECE130BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8227A55B-A8A8-4810-8F3B-326A2DD0A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8429A14F-D193-442A-83C9-D5FFAAB07750}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{051FC14C-C61F-489B-B4A2-13FA4FEC8827}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -71,550 +71,556 @@
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3942AA-00B1-4B88-8AD0-D637A9324BAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B585D1-29D7-4CC7-9808-C2616B9AD460}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1150,7 +1156,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="7">
-        <v>49403</v>
+        <v>44302</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1165,7 +1171,7 @@
         <v>137</v>
       </c>
       <c r="I4" s="7">
-        <v>76638</v>
+        <v>67249</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1180,7 +1186,7 @@
         <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>126041</v>
+        <v>111551</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1201,7 +1207,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>27128</v>
+        <v>23877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1216,184 +1222,184 @@
         <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>32451</v>
+        <v>27860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
       </c>
       <c r="N5" s="7">
-        <v>59579</v>
+        <v>51737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>26954</v>
+        <v>24838</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>116</v>
       </c>
       <c r="I6" s="7">
-        <v>64668</v>
+        <v>58451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>155</v>
       </c>
       <c r="N6" s="7">
-        <v>91622</v>
+        <v>83289</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>51028</v>
+        <v>47646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
       </c>
       <c r="I7" s="7">
-        <v>62670</v>
+        <v>57598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>113698</v>
+        <v>105243</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>98107</v>
+        <v>98180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
       </c>
       <c r="I8" s="7">
-        <v>65817</v>
+        <v>63118</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
       </c>
       <c r="N8" s="7">
-        <v>163924</v>
+        <v>161298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,51 +1411,51 @@
         <v>327</v>
       </c>
       <c r="D9" s="7">
-        <v>252619</v>
+        <v>238842</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>519</v>
       </c>
       <c r="I9" s="7">
-        <v>302244</v>
+        <v>274276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>846</v>
       </c>
       <c r="N9" s="7">
-        <v>554863</v>
+        <v>513118</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1458,46 +1464,46 @@
         <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>60955</v>
+        <v>55908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>50820</v>
+        <v>45420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>111775</v>
+        <v>101328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,199 +1515,199 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>39157</v>
+        <v>34749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>30999</v>
+        <v>27144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
       </c>
       <c r="N11" s="7">
-        <v>70156</v>
+        <v>61892</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>101711</v>
+        <v>95399</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>92867</v>
+        <v>83733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
       </c>
       <c r="N12" s="7">
-        <v>194578</v>
+        <v>179132</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>324</v>
       </c>
       <c r="D13" s="7">
-        <v>323542</v>
+        <v>302363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>458</v>
       </c>
       <c r="I13" s="7">
-        <v>298491</v>
+        <v>273863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>782</v>
       </c>
       <c r="N13" s="7">
-        <v>622034</v>
+        <v>576226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>489999</v>
+        <v>683916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>655</v>
       </c>
       <c r="I14" s="7">
-        <v>577717</v>
+        <v>641999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
       </c>
       <c r="N14" s="7">
-        <v>1067716</v>
+        <v>1325915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,51 +1719,51 @@
         <v>990</v>
       </c>
       <c r="D15" s="7">
-        <v>1015364</v>
+        <v>1172334</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1365</v>
       </c>
       <c r="I15" s="7">
-        <v>1050894</v>
+        <v>1072159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>2355</v>
       </c>
       <c r="N15" s="7">
-        <v>2066258</v>
+        <v>2244493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1766,46 +1772,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>7664</v>
+        <v>7126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>10699</v>
+        <v>9602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>18363</v>
+        <v>16727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,199 +1823,199 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>9601</v>
+        <v>8410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>6172</v>
+        <v>5415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>15773</v>
+        <v>13826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>34828</v>
+        <v>32192</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
       </c>
       <c r="I18" s="7">
-        <v>27431</v>
+        <v>25319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
       </c>
       <c r="N18" s="7">
-        <v>62260</v>
+        <v>57511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>125827</v>
+        <v>116623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
       </c>
       <c r="I19" s="7">
-        <v>118111</v>
+        <v>107801</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>332</v>
       </c>
       <c r="N19" s="7">
-        <v>243939</v>
+        <v>224424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>169</v>
       </c>
       <c r="D20" s="7">
-        <v>186437</v>
+        <v>182432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
       </c>
       <c r="I20" s="7">
-        <v>181137</v>
+        <v>171634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
       </c>
       <c r="N20" s="7">
-        <v>367574</v>
+        <v>354065</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,46 +2027,46 @@
         <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>364358</v>
+        <v>346783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>518</v>
       </c>
       <c r="I21" s="7">
-        <v>343550</v>
+        <v>319771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>899</v>
       </c>
       <c r="N21" s="7">
-        <v>707909</v>
+        <v>666554</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,46 +2080,46 @@
         <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>118022</v>
+        <v>107335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
       </c>
       <c r="I22" s="7">
-        <v>138157</v>
+        <v>122271</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>391</v>
       </c>
       <c r="N22" s="7">
-        <v>256179</v>
+        <v>229606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,199 +2131,199 @@
         <v>95</v>
       </c>
       <c r="D23" s="7">
-        <v>75886</v>
+        <v>67036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
       </c>
       <c r="I23" s="7">
-        <v>69621</v>
+        <v>60419</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
       </c>
       <c r="N23" s="7">
-        <v>145507</v>
+        <v>127455</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>195</v>
       </c>
       <c r="D24" s="7">
-        <v>163493</v>
+        <v>152429</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
       </c>
       <c r="I24" s="7">
-        <v>184966</v>
+        <v>167503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>490</v>
       </c>
       <c r="N24" s="7">
-        <v>348459</v>
+        <v>319932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>532</v>
       </c>
       <c r="D25" s="7">
-        <v>500397</v>
+        <v>466632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
       </c>
       <c r="I25" s="7">
-        <v>479273</v>
+        <v>439263</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>1282</v>
       </c>
       <c r="N25" s="7">
-        <v>979671</v>
+        <v>905894</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>718</v>
       </c>
       <c r="D26" s="7">
-        <v>774543</v>
+        <v>964527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>1024</v>
       </c>
       <c r="I26" s="7">
-        <v>824671</v>
+        <v>876751</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1742</v>
       </c>
       <c r="N26" s="7">
-        <v>1599214</v>
+        <v>1841278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,51 +2335,51 @@
         <v>1698</v>
       </c>
       <c r="D27" s="7">
-        <v>1632341</v>
+        <v>1757958</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>2402</v>
       </c>
       <c r="I27" s="7">
-        <v>1696689</v>
+        <v>1666207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>4100</v>
       </c>
       <c r="N27" s="7">
-        <v>3329030</v>
+        <v>3424165</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
